--- a/金融計算模板.xlsx
+++ b/金融計算模板.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,17 +545,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>普通年金現值 Present Value of Ordinary Annuity</t>
+          <t>期初存入多期現金流未來值 Future Value (Beginning of Period)</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>每期金額 Payment (PMT)</t>
+          <t>每期存入金額 Payment per Period</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
       <c r="D10" s="2">
-        <f>PV(C11,C12,-C10,0,0)</f>
+        <f>C10*(1+C11)^C12 + C10*(1+C11)^(C12-1) + C10*(1+C11)^(C12-2)</f>
         <v/>
       </c>
       <c r="E10" s="2" t="n"/>
@@ -579,7 +579,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>普通年金終值 Future Value of Ordinary Annuity</t>
+          <t>普通年金現值 Present Value of Ordinary Annuity</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="C14" s="2" t="n"/>
       <c r="D14" s="2">
-        <f>FV(C15,C16,-C14,0,0)</f>
+        <f>PV(C15,C16,-C14,0,0)</f>
         <v/>
       </c>
       <c r="E14" s="2" t="n"/>
@@ -613,17 +613,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>成長年金現值 Present Value of Growing Annuity</t>
+          <t>普通年金終值 Future Value of Ordinary Annuity</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>首期金額 First Payment (C1)</t>
+          <t>每期金額 Payment (PMT)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2">
-        <f>C18/(C19-C20)*(1-POWER(1+C20,C21)/POWER(1+C19,C21))</f>
+        <f>FV(C19,C20,-C18,0,0)</f>
         <v/>
       </c>
       <c r="E18" s="2" t="n"/>
@@ -639,75 +639,75 @@
     <row r="20">
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>成長率 Growth Rate (g)</t>
+          <t>期數 Number of Periods (n)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n"/>
     </row>
-    <row r="21">
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>期數 Number of Periods (n)</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n"/>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>成長年金現值 Present Value of Growing Annuity</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>首期金額 First Payment (C1)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2">
+        <f>C22/(C23-C24)*(1-POWER(1+C24,C25)/POWER(1+C23,C25))</f>
+        <v/>
+      </c>
+      <c r="E22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>永續年金 Perpetuity</t>
-        </is>
-      </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>每期金額 Payment (C)</t>
+          <t>利率 Interest Rate (r)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2">
-        <f>C23/C24</f>
-        <v/>
-      </c>
-      <c r="E23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>利率 Interest Rate (r)</t>
+          <t>成長率 Growth Rate (g)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n"/>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>成長型永續年金 Growing Perpetuity</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>首期金額 First Payment (C1)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2">
-        <f>C26/(C27-C28)</f>
-        <v/>
-      </c>
-      <c r="E26" s="2" t="n"/>
+    <row r="25">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>期數 Number of Periods (n)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n"/>
     </row>
     <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>永續年金 Perpetuity</t>
+        </is>
+      </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>利率 Interest Rate (r)</t>
+          <t>每期金額 Payment (C)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2">
+        <f>C27/C28</f>
+        <v/>
+      </c>
+      <c r="E27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>成長率 Growth Rate (g)</t>
+          <t>利率 Interest Rate (r)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n"/>
@@ -715,17 +715,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>淨現值計算 Net Present Value (NPV)</t>
+          <t>成長型永續年金 Growing Perpetuity</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>利率 Interest Rate (r)</t>
+          <t>首期金額 First Payment (C1)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n"/>
       <c r="D30" s="2">
-        <f>NPV(C30,C32:C36)+C31</f>
+        <f>C30/(C31-C32)</f>
         <v/>
       </c>
       <c r="E30" s="2" t="n"/>
@@ -733,7 +733,7 @@
     <row r="31">
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>期初投資 Initial Investment (CF0)</t>
+          <t>利率 Interest Rate (r)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n"/>
@@ -741,31 +741,33 @@
     <row r="32">
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>現金流1 Cash Flow 1</t>
+          <t>成長率 Growth Rate (g)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n"/>
     </row>
-    <row r="33">
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>現金流2 Cash Flow 2</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="n"/>
-    </row>
     <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>淨現值計算 Net Present Value (NPV)</t>
+        </is>
+      </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>現金流3 Cash Flow 3</t>
+          <t>利率 Interest Rate (r)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2">
+        <f>NPV(C34,C36:C40)+C35</f>
+        <v/>
+      </c>
+      <c r="E34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>現金流4 Cash Flow 4</t>
+          <t>期初投資 Initial Investment (CF0)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n"/>
@@ -773,33 +775,31 @@
     <row r="36">
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>現金流5 Cash Flow 5</t>
+          <t>現金流1 Cash Flow 1</t>
         </is>
       </c>
       <c r="C36" s="2" t="n"/>
     </row>
+    <row r="37">
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>現金流2 Cash Flow 2</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n"/>
+    </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>內部報酬率 Internal Rate of Return (IRR)</t>
-        </is>
-      </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>期初投資 Initial Investment (CF0)</t>
+          <t>現金流3 Cash Flow 3</t>
         </is>
       </c>
       <c r="C38" s="2" t="n"/>
-      <c r="D38" s="2">
-        <f>IRR(C38:C43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>現金流1 Cash Flow 1</t>
+          <t>現金流4 Cash Flow 4</t>
         </is>
       </c>
       <c r="C39" s="2" t="n"/>
@@ -807,57 +807,57 @@
     <row r="40">
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>現金流2 Cash Flow 2</t>
+          <t>現金流5 Cash Flow 5</t>
         </is>
       </c>
       <c r="C40" s="2" t="n"/>
     </row>
-    <row r="41">
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>現金流3 Cash Flow 3</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n"/>
-    </row>
     <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>內部報酬率 Internal Rate of Return (IRR)</t>
+        </is>
+      </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>現金流4 Cash Flow 4</t>
+          <t>期初投資 Initial Investment (CF0)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2">
+        <f>IRR(C42:C47)</f>
+        <v/>
+      </c>
+      <c r="E42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>現金流5 Cash Flow 5</t>
+          <t>現金流1 Cash Flow 1</t>
         </is>
       </c>
       <c r="C43" s="2" t="n"/>
     </row>
+    <row r="44">
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>現金流2 Cash Flow 2</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n"/>
+    </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>股利折現模型 Dividend Discount Model (DDM)</t>
-        </is>
-      </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>明年股利 Next Year Dividend (D1)</t>
+          <t>現金流3 Cash Flow 3</t>
         </is>
       </c>
       <c r="C45" s="2" t="n"/>
-      <c r="D45" s="2">
-        <f>C45/(C46-C47)</f>
-        <v/>
-      </c>
-      <c r="E45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>必要報酬率 Required Return (r)</t>
+          <t>現金流4 Cash Flow 4</t>
         </is>
       </c>
       <c r="C46" s="2" t="n"/>
@@ -865,7 +865,7 @@
     <row r="47">
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>成長率 Growth Rate (g)</t>
+          <t>現金流5 Cash Flow 5</t>
         </is>
       </c>
       <c r="C47" s="2" t="n"/>
@@ -873,17 +873,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>本益比 Price-Earnings Ratio (P/E)</t>
+          <t>股利折現模型 Dividend Discount Model (DDM)</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>保留盈餘率 Retention Ratio (b)</t>
+          <t>明年股利 Next Year Dividend (D1)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n"/>
       <c r="D49" s="2">
-        <f>(1-C49)/(C50-C51)</f>
+        <f>C49/(C50-C51)</f>
         <v/>
       </c>
       <c r="E49" s="2" t="n"/>
@@ -907,17 +907,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>債券價格 Bond Price</t>
+          <t>本益比 Price-Earnings Ratio (P/E)</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>票面利率 Coupon Rate (C)</t>
+          <t>保留盈餘率 Retention Ratio (b)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n"/>
       <c r="D53" s="2">
-        <f>PV(C54,C55,-C53*C56,C56,0)</f>
+        <f>(1-C53)/(C54-C55)</f>
         <v/>
       </c>
       <c r="E53" s="2" t="n"/>
@@ -925,7 +925,7 @@
     <row r="54">
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>市場利率 Market Rate (r)</t>
+          <t>必要報酬率 Required Return (r)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n"/>
@@ -933,41 +933,41 @@
     <row r="55">
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>期數 Number of Periods (n)</t>
+          <t>成長率 Growth Rate (g)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n"/>
     </row>
-    <row r="56">
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>面額 Face Value (F)</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="n"/>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>債券價格 Bond Price</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>票面利率 Coupon Rate (C)</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2">
+        <f>PV(C58,C59,-C57*C60,C60,0)</f>
+        <v/>
+      </c>
+      <c r="E57" s="2" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>債券殖利率 Yield to Maturity (YTM)</t>
-        </is>
-      </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>市價 Market Price (P)</t>
+          <t>市場利率 Market Rate (r)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n"/>
-      <c r="D58" s="2">
-        <f>RATE(C59,C58*C60,-C57,C60)</f>
-        <v/>
-      </c>
-      <c r="E58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>票面利率 Coupon Rate (C)</t>
+          <t>期數 Number of Periods (n)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n"/>
@@ -975,18 +975,52 @@
     <row r="60">
       <c r="B60" s="2" t="inlineStr">
         <is>
+          <t>面額 Face Value (F)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>債券殖利率 Yield to Maturity (YTM)</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>市價 Market Price (P)</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n"/>
+      <c r="D62" s="2">
+        <f>RATE(C63,C62*C64,-C61,C64)</f>
+        <v/>
+      </c>
+      <c r="E62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>票面利率 Coupon Rate (C)</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="2" t="inlineStr">
+        <is>
           <t>期數 Number of Periods (n)</t>
         </is>
       </c>
-      <c r="C60" s="2" t="n"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="2" t="inlineStr">
+      <c r="C64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>面額 Face Value (F)</t>
         </is>
       </c>
-      <c r="C61" s="2" t="n"/>
+      <c r="C65" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
